--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1123427.160258895</v>
+        <v>1118713.249304531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791248</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9999197.414719056</v>
+        <v>9996837.497157382</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>159.7870651303272</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>141.0218717918279</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -795,10 +795,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>120.9596739140852</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102173343</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.39790239895615</v>
+        <v>139.3663780557825</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>301.9388352553183</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>386.2682492335335</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1032,10 +1032,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>35.13685922633105</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>81.06841991237128</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1063,10 +1063,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>78.03010452925115</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>10.97028600376314</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>327.9914143469221</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>197.6391053811955</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>102.399993022314</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2.101962464946135</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>233.094035602171</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.479377239889</v>
@@ -1385,10 +1385,10 @@
         <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>276.3173031913913</v>
       </c>
       <c r="Y11" t="n">
         <v>321.447489593873</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.15259771868505</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465762</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442489</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681703</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338907</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.685168714561</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.527262219216574</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,7 +1582,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372781</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>168.3146059521773</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>77.86744710834091</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993866</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177839</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442477</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>95.4932009668169</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338894</v>
+        <v>68.9456479586631</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
-        <v>40.72026594226969</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730199</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815734</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093891</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227894</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619113</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126125</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841673</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564647</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838911</v>
+        <v>24.17382596575027</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828923</v>
+        <v>52.06849973565039</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434679</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970378</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308072</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086859</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435642</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158953</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431756</v>
+        <v>70.57601873167872</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459996</v>
+        <v>55.72314698196112</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643969</v>
+        <v>41.29686219380085</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193188</v>
+        <v>41.22330424667996</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908607</v>
+        <v>42.97275566644723</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614782</v>
+        <v>53.79159358883936</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805025</v>
+        <v>41.14384575541141</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922218</v>
+        <v>18.98356133658334</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736781</v>
+        <v>9.882059701039253</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920541</v>
+        <v>88.00800320656657</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407387</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678085</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546745</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754246</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221372</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.1010207988135</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3977,25 +3977,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.291046173529</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.291046173529</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="D2" t="n">
-        <v>1173.291046173529</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.889970284309</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>374.7086486614407</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035832</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.086525067013</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1022.086525067013</v>
+        <v>588.4870060424398</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704475</v>
+        <v>1102.08968465213</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596803</v>
+        <v>1542.129285544458</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.31677767598</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023274</v>
+        <v>2037.16942410245</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>1870.655869043501</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964324</v>
+        <v>1647.155266602917</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964324</v>
+        <v>1504.708931459657</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.276500964324</v>
+        <v>1162.602122163175</v>
       </c>
       <c r="W2" t="n">
-        <v>1970.276500964324</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.276500964324</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1573.785791884926</v>
+        <v>791.6030871314629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>791.4819759082811</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>640.8277454683733</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898537</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007414</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838732</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557377</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.618228976066</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>154.618228976066</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653893</v>
+        <v>638.1843148743792</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653893</v>
+        <v>1151.786993484069</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875483</v>
+        <v>1561.559659207239</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466464</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714993</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>2051.245294714993</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734594</v>
+        <v>1874.261482913901</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1664.198339592543</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1542.016850790437</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1311.899604923723</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>943.2783103492425</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.5070426661383</v>
+        <v>678.2751606822028</v>
       </c>
       <c r="C4" t="n">
-        <v>229.5070426661383</v>
+        <v>678.2751606822028</v>
       </c>
       <c r="D4" t="n">
-        <v>73.8739295686531</v>
+        <v>522.6420475847176</v>
       </c>
       <c r="E4" t="n">
-        <v>73.8739295686531</v>
+        <v>367.0832354439201</v>
       </c>
       <c r="F4" t="n">
-        <v>73.8739295686531</v>
+        <v>209.757300656893</v>
       </c>
       <c r="G4" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="H4" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="I4" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="X4" t="n">
-        <v>508.0462759018397</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="Y4" t="n">
-        <v>414.7150613574396</v>
+        <v>678.2751606822028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1218.322063900462</v>
+        <v>1704.163302785216</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.322063900462</v>
+        <v>1310.987801288146</v>
       </c>
       <c r="D5" t="n">
-        <v>832.8809351171301</v>
+        <v>1310.987801288146</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>1310.987801288146</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>894.0933628181241</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>114.5970879866915</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>607.9173797052204</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1121.52005831491</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059667</v>
+        <v>1635.1227369246</v>
       </c>
       <c r="O5" t="n">
-        <v>2018.746465951996</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="P5" t="n">
-        <v>2018.746465951996</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678803</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678803</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.269414678803</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.269414678803</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="W5" t="n">
-        <v>2008.269414678803</v>
+        <v>1704.163302785216</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.816809611859</v>
+        <v>1704.163302785216</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.816809611859</v>
+        <v>1704.163302785216</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>704.4227390072573</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>553.7685085673495</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442699</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475504</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L6" t="n">
-        <v>176.1237484101862</v>
+        <v>361.242392818565</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202797</v>
+        <v>407.9705203262608</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430373</v>
+        <v>921.5731989359506</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021354</v>
+        <v>1435.17587754564</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737752</v>
+        <v>1840.797246262038</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816928</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714993</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614862</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734594</v>
+        <v>1739.33080581377</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413235</v>
+        <v>1529.267662492412</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863479</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1224.8403680227</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1035.533290372711</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>856.2190734482186</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>866.1243945330234</v>
+        <v>708.7571111410361</v>
       </c>
       <c r="C7" t="n">
-        <v>866.1243945330234</v>
+        <v>538.5519932070254</v>
       </c>
       <c r="D7" t="n">
-        <v>710.4912814355382</v>
+        <v>382.9188801095402</v>
       </c>
       <c r="E7" t="n">
-        <v>554.9324692947407</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="F7" t="n">
-        <v>397.6065345077136</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="G7" t="n">
-        <v>229.3524806071591</v>
+        <v>227.3600679687426</v>
       </c>
       <c r="H7" t="n">
-        <v>73.8739295686531</v>
+        <v>71.88151693023661</v>
       </c>
       <c r="I7" t="n">
-        <v>73.8739295686531</v>
+        <v>71.88151693023661</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475504</v>
+        <v>41.50324675633857</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>866.1243945330234</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1243945330234</v>
+        <v>931.8691723243928</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1243945330234</v>
+        <v>708.7571111410361</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.210445219441</v>
+        <v>847.9059862831563</v>
       </c>
       <c r="C8" t="n">
-        <v>786.0349437223717</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5938149390395</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
         <v>69.28935600275456</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>371.4442765563904</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1961.506576322747</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1619.399767026266</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1248.400731994553</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.195900010237</v>
+        <v>1248.400731994553</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.705190930838</v>
+        <v>1248.400731994553</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>140.0776713099957</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.3167183594016</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="C10" t="n">
-        <v>368.1116004253909</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="D10" t="n">
-        <v>368.1116004253909</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="E10" t="n">
-        <v>368.1116004253909</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>181.1255766616174</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="X10" t="n">
-        <v>946.6367982340596</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="Y10" t="n">
-        <v>723.5247370507029</v>
+        <v>336.6041277001235</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.485543579473</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C11" t="n">
-        <v>1567.106317228598</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2859.534777998631</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2859.534777998631</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X11" t="n">
-        <v>2541.878448077882</v>
+        <v>2105.630376813569</v>
       </c>
       <c r="Y11" t="n">
-        <v>2217.184014144676</v>
+        <v>1780.935942880364</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.783730761083</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1975.304013352064</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.4137444097676</v>
+        <v>472.8495292029539</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4137444097676</v>
+        <v>472.8495292029539</v>
       </c>
       <c r="D13" t="n">
-        <v>158.5769064584761</v>
+        <v>472.8495292029539</v>
       </c>
       <c r="E13" t="n">
-        <v>158.5769064584761</v>
+        <v>389.08699220835</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675167</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131561</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208439</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027734</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1487.109144623379</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1356.089335952122</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457678</v>
+        <v>1192.16655926655</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457731</v>
+        <v>1192.16655926655</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127911</v>
+        <v>997.9834892335684</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901626</v>
+        <v>786.4493623109399</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193395</v>
+        <v>624.1653152401168</v>
       </c>
       <c r="Y13" t="n">
-        <v>268.8305097821767</v>
+        <v>472.8495292029539</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312599</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>128.659969465457</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2751.985177299521</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2751.985177299521</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378772</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>1709.754712644745</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
         <v>1863.93438008877</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.0345227307293</v>
+        <v>641.0550026948637</v>
       </c>
       <c r="C16" t="n">
-        <v>411.6256799429125</v>
+        <v>542.6461599070467</v>
       </c>
       <c r="D16" t="n">
-        <v>327.7888419916212</v>
+        <v>458.8093219557553</v>
       </c>
       <c r="E16" t="n">
-        <v>327.7888419916212</v>
+        <v>375.0467849611516</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507881</v>
+        <v>289.5171253203184</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>193.0593465659581</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1455.60106005464</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1291.678283369068</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="U16" t="n">
-        <v>1078.035766757162</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>883.8526967241806</v>
+        <v>905.782532277134</v>
       </c>
       <c r="W16" t="n">
-        <v>672.3185698015523</v>
+        <v>905.782532277134</v>
       </c>
       <c r="X16" t="n">
-        <v>510.0345227307293</v>
+        <v>905.782532277134</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.0345227307293</v>
+        <v>754.4667462399711</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975438</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099305</v>
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,22 +5671,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446707</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
         <v>1094.77996610623</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,16 +6008,16 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6029,10 +6029,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,16 +6227,16 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938493</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612378</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
         <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2416.016209023994</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
         <v>2949.107171645896</v>
@@ -6251,7 +6251,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6260,13 +6260,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>358.2210070908127</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>841.787092989126</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.755098887807</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879683</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918593</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303048</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993095</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.380725810812</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803399</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835561</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234523</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039956017</v>
+        <v>292.5019091060236</v>
       </c>
       <c r="K32" t="n">
-        <v>763.8629527501336</v>
+        <v>651.4842651334855</v>
       </c>
       <c r="L32" t="n">
-        <v>1362.456337195732</v>
+        <v>1144.804556852014</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.457237240313</v>
+        <v>1690.805456896595</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877775</v>
+        <v>2218.616740534057</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770104</v>
+        <v>2658.656341426386</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901626</v>
+        <v>3118.49595413289</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3303.341514273839</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117261</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939836</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380778</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696901</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281945</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131757</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234523</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220726</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.741431909019</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965144</v>
+        <v>365.6713676929749</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991868</v>
+        <v>309.3853606404888</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237471</v>
+        <v>267.6713584245284</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123139</v>
+        <v>226.0316571652557</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597534</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407238</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431945</v>
+        <v>86.73045008374254</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234523</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>149.4335135798902</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>337.0682132920878</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812059</v>
+        <v>501.1958531658876</v>
       </c>
       <c r="M34" t="n">
-        <v>787.84734314654</v>
+        <v>687.4874315041516</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777491</v>
+        <v>982.3291861103432</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1256.686073727034</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1376.562239503612</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746647</v>
+        <v>1379.984435873663</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387765</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420502</v>
+        <v>1281.105584451839</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501598</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250238</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395542</v>
+        <v>835.7257283273728</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000962</v>
+        <v>666.3144371400753</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124436</v>
+        <v>546.1532258045831</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584513</v>
+        <v>436.9602755027514</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099308</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924211</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6941,46 +6941,46 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,22 +7011,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.1191277041155</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369565</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218798</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072652</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445244</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862324</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162811</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7257,13 +7257,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291067</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511124</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7412,10 +7412,10 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
         <v>1605.072448403516</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7570,25 +7570,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924234</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411555</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072691</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462928</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031230064</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222425</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960423</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343063</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655156</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296521</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106231</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>633.0044694637927</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>193.5145772035973</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920162</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>93.76504805760555</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.177706503544</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886046</v>
+        <v>499.2838964129239</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343121</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>216.8905660381797</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321653</v>
+        <v>668.5156360519593</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920162</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>302.1113285050146</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>224.0281135391719</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837499</v>
+        <v>139.5872508449643</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886046</v>
+        <v>604.1626973083987</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343121</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,13 +8453,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>470.4637632346382</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>183.2986537257091</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8769,10 +8769,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.3264449482919</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,7 +9015,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939639</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888876</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>345.597757882153</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,10 +10188,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>377.3304183063258</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10203,13 +10203,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286867</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10598,7 +10598,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698818</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10905,16 +10905,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>187.5973797276328</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>459.8553156798577</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>77.41436949859605</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362806</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>38.16246343015058</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.12502839097132</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993879</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177851</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>42.05640485980035</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362793</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>99.29282285660744</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>243.5800424855321</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246575</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>13.89980517472596</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456087</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901679</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>88.98934464227442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
     </row>
     <row r="21">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>873006.8254891536</v>
+        <v>871803.7302616329</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>873006.8254891536</v>
+        <v>871803.7302616329</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>875311.8642169498</v>
+        <v>875311.8642169497</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>784668.6797208693</v>
+        <v>784668.6797208694</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>784668.6797208695</v>
+        <v>784668.6797208693</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881145.1911980681</v>
+        <v>881145.191198068</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>432797.2274240563</v>
       </c>
       <c r="C2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="D2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="E2" t="n">
+        <v>382461.656218561</v>
+      </c>
+      <c r="F2" t="n">
+        <v>382461.6562185612</v>
+      </c>
+      <c r="G2" t="n">
         <v>432797.2274240564</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>432797.2274240564</v>
-      </c>
-      <c r="E2" t="n">
-        <v>382461.6562185611</v>
-      </c>
-      <c r="F2" t="n">
-        <v>382461.6562185609</v>
-      </c>
-      <c r="G2" t="n">
-        <v>432797.2274240563</v>
-      </c>
-      <c r="H2" t="n">
-        <v>432797.2274240561</v>
       </c>
       <c r="I2" t="n">
         <v>432797.2274240562</v>
       </c>
       <c r="J2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="K2" t="n">
         <v>432797.2274240562</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>432797.2274240558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="O2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="P2" t="n">
         <v>432797.2274240564</v>
-      </c>
-      <c r="L2" t="n">
-        <v>432797.2274240562</v>
-      </c>
-      <c r="M2" t="n">
-        <v>432797.2274240561</v>
-      </c>
-      <c r="N2" t="n">
-        <v>432797.2274240562</v>
-      </c>
-      <c r="O2" t="n">
-        <v>432797.2274240562</v>
-      </c>
-      <c r="P2" t="n">
-        <v>432797.2274240565</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340556</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062165</v>
+        <v>22558.42953401302</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668185</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.82055073001076e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728525</v>
+        <v>62456.24177539643</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962302</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277111</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327252</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327252</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26427,16 +26427,16 @@
         <v>125701.6674923645</v>
       </c>
       <c r="F4" t="n">
-        <v>125701.6674923646</v>
+        <v>125701.6674923645</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26457,7 +26457,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="P4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481731</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481731</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315429</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26776.9314918365</v>
+        <v>-22425.48567754189</v>
       </c>
       <c r="C6" t="n">
-        <v>155428.0168000197</v>
+        <v>151433.1713565137</v>
       </c>
       <c r="D6" t="n">
-        <v>148259.6957783485</v>
+        <v>140523.406554957</v>
       </c>
       <c r="E6" t="n">
-        <v>91451.40755231149</v>
+        <v>91241.67600562186</v>
       </c>
       <c r="F6" t="n">
-        <v>203573.9690263557</v>
+        <v>203364.2374796666</v>
       </c>
       <c r="G6" t="n">
-        <v>153741.548587908</v>
+        <v>153741.5485879082</v>
       </c>
       <c r="H6" t="n">
+        <v>201166.87412459</v>
+      </c>
+      <c r="I6" t="n">
         <v>201166.8741245896</v>
       </c>
-      <c r="I6" t="n">
-        <v>201166.8741245898</v>
-      </c>
       <c r="J6" t="n">
-        <v>-11875.04347269599</v>
+        <v>-5358.758318122629</v>
       </c>
       <c r="K6" t="n">
-        <v>194927.1057218069</v>
+        <v>194927.1057218068</v>
       </c>
       <c r="L6" t="n">
-        <v>139744.5167871859</v>
+        <v>135695.6795767134</v>
       </c>
       <c r="M6" t="n">
-        <v>158966.0446649666</v>
+        <v>157914.3496537787</v>
       </c>
       <c r="N6" t="n">
-        <v>201166.8741245897</v>
+        <v>201166.8741245899</v>
       </c>
       <c r="O6" t="n">
-        <v>173399.1800818185</v>
+        <v>173399.1800818187</v>
       </c>
       <c r="P6" t="n">
-        <v>201166.8741245901</v>
+        <v>201166.87412459</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>71.07831239473188</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.0783123947319</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293153</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085231</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660656</v>
+        <v>78.07030221924553</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551382</v>
+        <v>17.58004954287483</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346389</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506298</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773721</v>
+        <v>659.3622249971661</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240717</v>
+        <v>117.1268713042779</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085231</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485708</v>
+        <v>72.62154181506298</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>238.7706245042936</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>112.1733304779195</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>99.35492769855841</v>
       </c>
       <c r="W3" t="n">
-        <v>185.1777423863126</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.4830381725669</v>
+        <v>81.51456251574058</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>96.61885437930255</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>22.76287872334331</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,10 +27676,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>185.1777423863126</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.7476534956747</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>202.466993518883</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>220.7692329910836</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>70.56627528769883</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>55.55609688855182</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,16 +28020,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>29.36348808697888</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>229.6375565299006</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473188</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>35.71049010668915</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28758,10 +28758,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>28.01250026485354</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,37 +29232,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29299,19 +29299,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>86.65052755599578</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
+        <v>86.65052755599527</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901232</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566867</v>
+        <v>81.10808140893971</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.8683420224805</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254537</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727095</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2979821082768</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155845</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>35.71049010668688</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30484,13 +30484,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30642,28 +30642,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668946</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -32710,25 +32710,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32792,16 +32792,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>479.756299733301</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>43.78952560587003</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.704701200687317</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="N3" t="n">
-        <v>543.695742434438</v>
+        <v>413.9117835587572</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>73.83216285894237</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.6126300866224</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>133.9677666822537</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.695742434438</v>
+        <v>47.20012879565235</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434438</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542321</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>327.4053600554008</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>93.70171839237574</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35489,10 +35489,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.2430801289772</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257281</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35583,10 +35583,10 @@
         <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488436</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,7 +35735,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257294</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934991</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,10 +36054,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724881</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>316.4712935610698</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500603</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,13 +36528,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716088</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>449.2589679877754</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>638.1665882070868</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7334829729924</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917577</v>
+        <v>227.2189631350287</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318503</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682817</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792973</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273743</v>
+        <v>75.16693519537627</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791163</v>
+        <v>82.70543230055048</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>189.5299997092905</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220907</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476683</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496242</v>
+        <v>277.1281693097884</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457854</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>313.3380164832356</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835664</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2252668734662</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,7 +37716,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>156.797526244645</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37780,13 +37780,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>374.483202825691</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634530394</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
